--- a/modelo.xlsx
+++ b/modelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PNIOfid\exels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rpract\stanmodel\ModeloSerpientesPNI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C256B332-B9E1-449F-B526-B2574CE3DFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C07AB942-E585-4CD7-B2FF-F74BF7F4547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="74">
   <si>
     <t>Especie</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>54, 448333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frecuencia </t>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -690,6 +693,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E214"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,9 +988,10 @@
     <col min="3" max="3" width="12.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1000,8 +1007,11 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2013</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2013</v>
       </c>
@@ -1035,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2013</v>
       </c>
@@ -1052,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2013</v>
       </c>
@@ -1069,7 +1079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2013</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2013</v>
       </c>
@@ -1103,7 +1113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2013</v>
       </c>
@@ -1120,7 +1130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2013</v>
       </c>
@@ -1137,7 +1147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -1154,7 +1164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2013</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2014</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2014</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2014</v>
       </c>
@@ -1216,7 +1226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2014</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2014</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>2014</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2">
         <v>25.678799999999999</v>
